--- a/royal-pavilion-museum/rpm_arch_data_raw.xlsx
+++ b/royal-pavilion-museum/rpm_arch_data_raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="23840" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rpm_arch_pid_rel1_0_180712.csv" sheetId="1" r:id="rId1"/>
@@ -21,221 +21,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
   <si>
-    <t>dmas_ha1955_24_2_16_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA1955.24.2.17</t>
-  </si>
-  <si>
-    <t>Whole: 131 mm x 49 mm x 30 mm</t>
-  </si>
-  <si>
-    <t>dmas_ha1955_24_2_17_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA210001</t>
-  </si>
-  <si>
-    <t>Pick</t>
-  </si>
-  <si>
-    <t>Mesolithic</t>
-  </si>
-  <si>
-    <t>Mile Oak, Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Flint</t>
-  </si>
-  <si>
-    <t>Whole: 140 mm x 55 mm</t>
-  </si>
-  <si>
-    <t>This is a Mesolithic flint pick discovered in Mile Oak, Portslade, Sussex.   A flint pick would have been tied to a wooden handle and used like a pick axe.</t>
-  </si>
-  <si>
-    <t>dmas_ha210001_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA210077</t>
-  </si>
-  <si>
-    <t>Whole: 158 mm x 50 mm</t>
-  </si>
-  <si>
-    <t>This is a Mesolithic flint axe, unfinished. It was found in Mile Oak in Portslade, East Sussex.</t>
-  </si>
-  <si>
-    <t>dmas_ha210077_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA210500</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Whole: 130 mm x 50 mm</t>
-  </si>
-  <si>
-    <t>This is a Mesolithic flint axe with a tranchet end, found at Mile Oak, in Portslade, East Sussex.</t>
-  </si>
-  <si>
-    <t>dmas_ha210500_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA220004</t>
-  </si>
-  <si>
-    <t>Polished Axe</t>
-  </si>
-  <si>
-    <t>Neolithic</t>
-  </si>
-  <si>
-    <t>Ernest H Willett</t>
-  </si>
-  <si>
-    <t>Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Whole: 118 mm x 66 mm</t>
-  </si>
-  <si>
-    <t>Dataset info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is a Neolithic flint end scraper found at Hove Park in Hove, East Sussex. The end of the scraper has been retouched to make a rounded scraping edge. A probable use for scrapers was cleaning animal skins.</t>
-  </si>
-  <si>
-    <t>dmas_ha221627_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA222341</t>
-  </si>
-  <si>
-    <t>Fabricator</t>
-  </si>
-  <si>
-    <t>Whole: 70 mm x 15 mm</t>
-  </si>
-  <si>
-    <t>This is a Neolithic flint fabricator, which is a retouched flint tool. Fabricators may have been used for lighting fires by striking it against another flint.</t>
-  </si>
-  <si>
-    <t>dmas_ha222341_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA230207</t>
-  </si>
-  <si>
-    <t>Arrowhead</t>
-  </si>
-  <si>
-    <t>Cock Roost Bottom, Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Whole: 35 mm x 30 mm</t>
-  </si>
-  <si>
-    <t>This is a Bronze Age triangular barbed and tanged flint arrowhead. One of the barbs of the arrowhead is missing. The arrowhead was found at the top of Cock Roost Bottom, north of Portslade. The arrowhead would have been mounted on a shaft of wood.</t>
-  </si>
-  <si>
-    <t>dmas_ha230207_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA230493</t>
-  </si>
-  <si>
-    <t>Urn</t>
-  </si>
-  <si>
-    <t>Hangleton, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Ceramic</t>
-  </si>
-  <si>
-    <t>Whole: 157 mm x 129 mm</t>
-  </si>
-  <si>
-    <t>Archaeology collections from the Royal Pavilion and Museums</t>
-  </si>
-  <si>
-    <t>Published illustrated data set</t>
-  </si>
-  <si>
-    <t>Release 1.0 18/07/2012</t>
-  </si>
-  <si>
-    <t>Data released under a Creative Commons CC0 licence</t>
-  </si>
-  <si>
-    <t>Image refs refer to files in: rpm_arch_img_rel1_0_180712.zip http://www.images.brighton-hove-rpml.org.uk/assetbank-pavilion/action/browseItems?categoryId=1304&amp;categoryTypeId=1</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Object Name</t>
-  </si>
-  <si>
-    <t>Common Name</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Date Produced</t>
-  </si>
-  <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Place Collected</t>
-  </si>
-  <si>
-    <t>Date Collected</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Measurements</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Image ref.</t>
-  </si>
-  <si>
-    <t>HA1955.24.2.16</t>
-  </si>
-  <si>
-    <t>Archaeology</t>
-  </si>
-  <si>
-    <t>Palstave Axe</t>
-  </si>
-  <si>
-    <t>Bronze Age</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Whole: 132 mm x 32 mm x 28 mm</t>
-  </si>
-  <si>
-    <t>This is a bronze moulded palstave axe, dating to the mid Bronze Age. The axe would have been hafted onto a wooden handle and bound in place with a piece of leather.</t>
+    <t>This is a Romano-British handmade earthenware jar of sandy grey coarseware. The jar was used as a cremation urn and contained cremated adult remains. It was probably originally used as a storage jar. It has an incised lattice decoration around the body of the jar and an everted rim. It was made in the late 3rd to 4th century AD and was discovered on a building site on Elizabeth Avenue, Hove.</t>
+  </si>
+  <si>
+    <t>dmas_ha250495_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>Stone Volcanic</t>
+  </si>
+  <si>
+    <t>Whole: 124 mm x 48 mm</t>
+  </si>
+  <si>
+    <t>This is a Bronze Age axe hammer made of black volcanic stone, which may have come from northern Europe. One end of the axe hammer has a sharpened cutting edge and the other end is flattened and hammer like.
+The axe hammer was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
+  </si>
+  <si>
+    <t>dmas_ha230609_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA230610</t>
+  </si>
+  <si>
+    <t>Whetstone</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>2.7 INS X .6 INS X .35 INS.</t>
+  </si>
+  <si>
+    <t>This is a Bronze Age whetstone, used for sharpening tools. The whetstone has a hole near one edge, which suggests that this whetstone may have been worn as a pendant.
+The whetstone was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
+  </si>
+  <si>
+    <t>dmas_ha230610_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA230611</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Whole: 140 mm x 65 mm</t>
+  </si>
+  <si>
+    <t>This is a Bronze Age dagger. The two pieces of bronze formed part of the dagger. The dagger blade was originally attached to a bone handle by three nails, one of which is still attached to the blade. Traces of the original wooden sheath have also been found on the blade.
+The dagger was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
+  </si>
+  <si>
+    <t>dmas_ha230611_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA240003</t>
+  </si>
+  <si>
+    <t>Pedestal Pot</t>
+  </si>
+  <si>
+    <t>Iron Age</t>
+  </si>
+  <si>
+    <t>Cambridge Road, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Earthenware</t>
+  </si>
+  <si>
+    <t>Whole: 137 mm x x x 195 mm</t>
+  </si>
+  <si>
+    <t>This restored grey earthenware pedestal pot was handmade and has an everted rim and pedestal base. It was found in Cambridge Road, Hove and was probably used originally for cooking but was found containing cremated human remains.</t>
+  </si>
+  <si>
+    <t>dmas_ha240003_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>This is part of the upper section of an early Bronze Age collared ceramic urn, consisting of four sherds, repaired and includes rim, shoulder and body sherds. The decoration on the urn is in the form of  twisted cord impressions and is featured on the rim and shoulder sections. The urn was handmade and probably originally used as a food vessel but later reused as part of a cremation burial. These fragments of collared urn were found at Hangleton, East Sussex.</t>
+  </si>
+  <si>
+    <t>dmas_ha230493_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA230608</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>1239 BC; Bronze Age</t>
+  </si>
+  <si>
+    <t>Hove Barrow, 13 Palmeira Avenue, Palmeira Avenue, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>1856-1857</t>
+  </si>
+  <si>
+    <t>Wessex culture</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Whole: 63.5 x 88.9 mm</t>
+  </si>
+  <si>
+    <t>HA250495</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Roman; Late 3rd Century</t>
+  </si>
+  <si>
+    <t>West Blatchington, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Whole: 203 mm x 229 mm</t>
   </si>
   <si>
     <t>This is the Hove Amber Cup, made from a single piece of amber from northern Europe and dating to the Early Bronze Age. A calibrated date of 1500 BC has been determined for the cup, as a result of the radiocarbon dating of an oak knot from the coffin, in which the amber cup was found. 
@@ -291,133 +197,231 @@
     <t>Whole: 61 mm x 37 mm</t>
   </si>
   <si>
-    <t>This is a Bronze Age dagger. The two pieces of bronze formed part of the dagger. The dagger blade was originally attached to a bone handle by three nails, one of which is still attached to the blade. Traces of the original wooden sheath have also been found on the blade.
-The dagger was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
-  </si>
-  <si>
-    <t>dmas_ha230611_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA240003</t>
-  </si>
-  <si>
-    <t>Pedestal Pot</t>
-  </si>
-  <si>
-    <t>Iron Age</t>
-  </si>
-  <si>
-    <t>Cambridge Road, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Earthenware</t>
-  </si>
-  <si>
-    <t>Whole: 137 mm x x x 195 mm</t>
-  </si>
-  <si>
-    <t>This restored grey earthenware pedestal pot was handmade and has an everted rim and pedestal base. It was found in Cambridge Road, Hove and was probably used originally for cooking but was found containing cremated human remains.</t>
-  </si>
-  <si>
-    <t>dmas_ha240003_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>This is part of the upper section of an early Bronze Age collared ceramic urn, consisting of four sherds, repaired and includes rim, shoulder and body sherds. The decoration on the urn is in the form of  twisted cord impressions and is featured on the rim and shoulder sections. The urn was handmade and probably originally used as a food vessel but later reused as part of a cremation burial. These fragments of collared urn were found at Hangleton, East Sussex.</t>
-  </si>
-  <si>
-    <t>dmas_ha230493_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA230608</t>
-  </si>
-  <si>
-    <t>Cup</t>
-  </si>
-  <si>
-    <t>1239 BC; Bronze Age</t>
-  </si>
-  <si>
-    <t>Hove Barrow, 13 Palmeira Avenue, Palmeira Avenue, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>1856-1857</t>
-  </si>
-  <si>
-    <t>Wessex culture</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Whole: 63.5 x 88.9 mm</t>
-  </si>
-  <si>
-    <t>HA250495</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Roman; Late 3rd Century</t>
-  </si>
-  <si>
-    <t>West Blatchington, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
-  </si>
-  <si>
-    <t>Whole: 203 mm x 229 mm</t>
-  </si>
-  <si>
-    <t>This is a Romano-British handmade earthenware jar of sandy grey coarseware. The jar was used as a cremation urn and contained cremated adult remains. It was probably originally used as a storage jar. It has an incised lattice decoration around the body of the jar and an everted rim. It was made in the late 3rd to 4th century AD and was discovered on a building site on Elizabeth Avenue, Hove.</t>
-  </si>
-  <si>
-    <t>dmas_ha250495_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>Stone Volcanic</t>
-  </si>
-  <si>
-    <t>Whole: 124 mm x 48 mm</t>
-  </si>
-  <si>
-    <t>This is a Bronze Age axe hammer made of black volcanic stone, which may have come from northern Europe. One end of the axe hammer has a sharpened cutting edge and the other end is flattened and hammer like.
-The axe hammer was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
-  </si>
-  <si>
-    <t>dmas_ha230609_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA230610</t>
-  </si>
-  <si>
-    <t>Whetstone</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>2.7 INS X .6 INS X .35 INS.</t>
-  </si>
-  <si>
-    <t>This is a Bronze Age whetstone, used for sharpening tools. The whetstone has a hole near one edge, which suggests that this whetstone may have been worn as a pendant.
-The whetstone was one of the grave goods found with the Hove amber cup, which was discovered during the excavation of a burial mound in 1856-1857, to make way for the building of Palmeira Avenue in Hove.</t>
-  </si>
-  <si>
-    <t>dmas_ha230610_d01_cc1024.jpg</t>
-  </si>
-  <si>
-    <t>HA230611</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Whole: 140 mm x 65 mm</t>
+    <t>dmas_ha230207_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA230493</t>
+  </si>
+  <si>
+    <t>Urn</t>
+  </si>
+  <si>
+    <t>Hangleton, Hove, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Whole: 157 mm x 129 mm</t>
+  </si>
+  <si>
+    <t>Archaeology collections from the Royal Pavilion and Museums</t>
+  </si>
+  <si>
+    <t>Published illustrated data set</t>
+  </si>
+  <si>
+    <t>Release 1.0 18/07/2012</t>
+  </si>
+  <si>
+    <t>Data released under a Creative Commons CC0 licence</t>
+  </si>
+  <si>
+    <t>Image refs refer to files in: rpm_arch_img_rel1_0_180712.zip http://www.images.brighton-hove-rpml.org.uk/assetbank-pavilion/action/browseItems?categoryId=1304&amp;categoryTypeId=1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Date Produced</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Place Collected</t>
+  </si>
+  <si>
+    <t>Date Collected</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Image ref.</t>
+  </si>
+  <si>
+    <t>HA1955.24.2.16</t>
+  </si>
+  <si>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Palstave Axe</t>
+  </si>
+  <si>
+    <t>Bronze Age</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Whole: 132 mm x 32 mm x 28 mm</t>
+  </si>
+  <si>
+    <t>This is a bronze moulded palstave axe, dating to the mid Bronze Age. The axe would have been hafted onto a wooden handle and bound in place with a piece of leather.</t>
+  </si>
+  <si>
+    <t>dmas_ha1955_24_2_16_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA1955.24.2.17</t>
+  </si>
+  <si>
+    <t>Whole: 131 mm x 49 mm x 30 mm</t>
+  </si>
+  <si>
+    <t>dmas_ha1955_24_2_17_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA210001</t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
+  <si>
+    <t>Mesolithic</t>
+  </si>
+  <si>
+    <t>Mile Oak, Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Flint</t>
+  </si>
+  <si>
+    <t>Whole: 140 mm x 55 mm</t>
+  </si>
+  <si>
+    <t>This is a Mesolithic flint pick discovered in Mile Oak, Portslade, Sussex.   A flint pick would have been tied to a wooden handle and used like a pick axe.</t>
+  </si>
+  <si>
+    <t>dmas_ha210001_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA210077</t>
+  </si>
+  <si>
+    <t>Whole: 158 mm x 50 mm</t>
+  </si>
+  <si>
+    <t>This is a Mesolithic flint axe, unfinished. It was found in Mile Oak in Portslade, East Sussex.</t>
+  </si>
+  <si>
+    <t>dmas_ha210077_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA210500</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Whole: 130 mm x 50 mm</t>
+  </si>
+  <si>
+    <t>This is a Mesolithic flint axe with a tranchet end, found at Mile Oak, in Portslade, East Sussex.</t>
+  </si>
+  <si>
+    <t>dmas_ha210500_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA220004</t>
+  </si>
+  <si>
+    <t>Polished Axe</t>
+  </si>
+  <si>
+    <t>Neolithic</t>
+  </si>
+  <si>
+    <t>Ernest H Willett</t>
+  </si>
+  <si>
+    <t>Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Whole: 118 mm x 66 mm</t>
+  </si>
+  <si>
+    <t>Dataset info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a Neolithic flint end scraper found at Hove Park in Hove, East Sussex. The end of the scraper has been retouched to make a rounded scraping edge. A probable use for scrapers was cleaning animal skins.</t>
+  </si>
+  <si>
+    <t>dmas_ha221627_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA222341</t>
+  </si>
+  <si>
+    <t>Fabricator</t>
+  </si>
+  <si>
+    <t>Whole: 70 mm x 15 mm</t>
+  </si>
+  <si>
+    <t>This is a Neolithic flint fabricator, which is a retouched flint tool. Fabricators may have been used for lighting fires by striking it against another flint.</t>
+  </si>
+  <si>
+    <t>dmas_ha222341_d01_cc1024.jpg</t>
+  </si>
+  <si>
+    <t>HA230207</t>
+  </si>
+  <si>
+    <t>Arrowhead</t>
+  </si>
+  <si>
+    <t>Cock Roost Bottom, Portslade, Brighton &amp; Hove, East Sussex, England, United Kingdom, Europe</t>
+  </si>
+  <si>
+    <t>Whole: 35 mm x 30 mm</t>
+  </si>
+  <si>
+    <t>This is a Bronze Age triangular barbed and tanged flint arrowhead. One of the barbs of the arrowhead is missing. The arrowhead was found at the top of Cock Roost Bottom, north of Portslade. The arrowhead would have been mounted on a shaft of wood.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -782,588 +786,591 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="O20" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="O21" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="O22" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="O23" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="O24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="O25" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
